--- a/data/final_basket/cds_spreads.xlsx
+++ b/data/final_basket/cds_spreads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CQF\Project\data\Series_Selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CQF\Project\data\final_basket\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,16 +173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>328392</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>132357</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505285</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -199,7 +199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9756321" y="18941143"/>
+          <a:off x="612321" y="190501"/>
           <a:ext cx="7200000" cy="7942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -478,7 +478,7 @@
   <dimension ref="A1:CN97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R86" sqref="R86:R87"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
